--- a/output/chandigarh_karnal/clustered_evci_analysis.xlsx
+++ b/output/chandigarh_karnal/clustered_evci_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,17 +511,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bharat Petroleum, Petrol Pump -Karnal Petro Care</t>
+          <t>IOCL Petrol Pump</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29.703484</v>
+        <v>30.06691</v>
       </c>
       <c r="D2" t="n">
-        <v>77.00676300000001</v>
+        <v>76.87817200000001</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -530,28 +530,28 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>7350</v>
+        <v>3750</v>
       </c>
       <c r="I2" t="n">
-        <v>0.143527674140309</v>
+        <v>0.01566390122532572</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008223769033720072</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1862000</v>
       </c>
       <c r="L2" t="n">
-        <v>4145871.939056612</v>
+        <v>2357452.534520337</v>
       </c>
       <c r="M2" t="n">
-        <v>1273931.240858492</v>
+        <v>788318.1801780505</v>
       </c>
       <c r="N2" t="n">
         <v>25</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -560,17 +560,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veer filling station</t>
+          <t>Electric Vehicle Charging Station</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29.714612</v>
+        <v>30.118855</v>
       </c>
       <c r="D3" t="n">
-        <v>76.989018</v>
+        <v>76.870743</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -579,28 +579,28 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>7350</v>
+        <v>3750</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1257460725681832</v>
+        <v>0.002830390857826163</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005266231486706817</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1862000</v>
       </c>
       <c r="L3" t="n">
-        <v>4049296.390762358</v>
+        <v>2318574.442468386</v>
       </c>
       <c r="M3" t="n">
-        <v>1259444.908614354</v>
+        <v>782486.466370258</v>
       </c>
       <c r="N3" t="n">
         <v>25</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -609,14 +609,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Electric Vehicle Charging Station</t>
+          <t>Bharat Petroleum, Petrol Pump -Karnal Petro Care</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29.748326</v>
+        <v>29.703484</v>
       </c>
       <c r="D4" t="n">
-        <v>76.969256</v>
+        <v>77.00676300000001</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -631,25 +631,25 @@
         <v>7350</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08697044482290676</v>
+        <v>0.0008338808028381449</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0006912200583249042</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>1862000</v>
       </c>
       <c r="L4" t="n">
-        <v>3853637.76516937</v>
+        <v>2312526.175121594</v>
       </c>
       <c r="M4" t="n">
-        <v>1230096.114775406</v>
+        <v>781579.2262682391</v>
       </c>
       <c r="N4" t="n">
         <v>25</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -658,14 +658,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Paris Plaza Indian Oil Corporation Fuel Station</t>
+          <t>Veer filling station</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29.764296</v>
+        <v>29.714612</v>
       </c>
       <c r="D5" t="n">
-        <v>76.964167</v>
+        <v>76.989018</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -680,25 +680,25 @@
         <v>7350</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08999711976291735</v>
+        <v>4.721310295890975e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001216065440451083</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>1862000</v>
       </c>
       <c r="L5" t="n">
-        <v>3868910.117760783</v>
+        <v>2310143.028314961</v>
       </c>
       <c r="M5" t="n">
-        <v>1232386.967664117</v>
+        <v>781221.7542472442</v>
       </c>
       <c r="N5" t="n">
         <v>25</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -707,17 +707,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Balaji filling station</t>
+          <t>Royal Metro Filling Station Indian Oil Petrol Pump</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29.773843</v>
+        <v>29.731394</v>
       </c>
       <c r="D6" t="n">
-        <v>76.960795</v>
+        <v>76.976713</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -726,28 +726,28 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3750</v>
+        <v>7350</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09368591525193666</v>
+        <v>5.968835667233243e-07</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001801894964436746</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>1862000</v>
       </c>
       <c r="L6" t="n">
-        <v>3887523.476136729</v>
+        <v>2310001.808210972</v>
       </c>
       <c r="M6" t="n">
-        <v>1235178.97142051</v>
+        <v>781200.5712316458</v>
       </c>
       <c r="N6" t="n">
         <v>25</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -756,47 +756,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chatha Brothers, Reliance Petrol Pump</t>
+          <t>BHEL Charging Station</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29.789396</v>
+        <v>29.744918</v>
       </c>
       <c r="D7" t="n">
-        <v>76.954188</v>
+        <v>76.972632</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3750</v>
+        <v>7350</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1340856742758012</v>
+        <v>3.528560941695219e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006487031180804237</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>1862000</v>
       </c>
       <c r="L7" t="n">
-        <v>4093573.944717632</v>
+        <v>2310010.689492833</v>
       </c>
       <c r="M7" t="n">
-        <v>1266086.541707645</v>
+        <v>781201.903423925</v>
       </c>
       <c r="N7" t="n">
         <v>25</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -805,17 +805,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Indian oil petrol pump</t>
+          <t>Paris Plaza Indian Oil Corporation Fuel Station</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29.859923</v>
+        <v>29.764296</v>
       </c>
       <c r="D8" t="n">
-        <v>76.92871100000001</v>
+        <v>76.964167</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -824,28 +824,28 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3750</v>
+        <v>7350</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1514720380394459</v>
+        <v>2.282191323154032e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.009479641058994959</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>1862000</v>
       </c>
       <c r="L8" t="n">
-        <v>4189874.724926756</v>
+        <v>2310006.913715873</v>
       </c>
       <c r="M8" t="n">
-        <v>1280531.658739014</v>
+        <v>781201.3370573811</v>
       </c>
       <c r="N8" t="n">
         <v>25</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -854,14 +854,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cheema Hp Filling Station</t>
+          <t>Balaji filling station</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29.936625</v>
+        <v>29.773843</v>
       </c>
       <c r="D9" t="n">
-        <v>76.901596</v>
+        <v>76.960795</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -876,25 +876,25 @@
         <v>3750</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1571198569501193</v>
+        <v>2.674366419652344e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01027864292483576</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>1862000</v>
       </c>
       <c r="L9" t="n">
-        <v>4221157.250414632</v>
+        <v>2310008.101778926</v>
       </c>
       <c r="M9" t="n">
-        <v>1285224.037562195</v>
+        <v>781201.5152668389</v>
       </c>
       <c r="N9" t="n">
         <v>25</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -903,20 +903,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bharat Petroleum, Petrol Pump -Pipli Highway Service Station</t>
+          <t>Chatha Brothers, Reliance Petrol Pump</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.969053</v>
+        <v>29.789396</v>
       </c>
       <c r="D10" t="n">
-        <v>76.89426400000001</v>
+        <v>76.954188</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>3750</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04455107682032657</v>
+        <v>0.0002574368871969705</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>1862000</v>
       </c>
       <c r="L10" t="n">
-        <v>3662959.25268756</v>
+        <v>2310779.884436246</v>
       </c>
       <c r="M10" t="n">
-        <v>1190694.337903134</v>
+        <v>774117.2826654369</v>
       </c>
       <c r="N10" t="n">
         <v>25</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -952,14 +952,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IOCL Petrol Pump</t>
+          <t>Indian Oil Fueling Station</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30.06691</v>
+        <v>29.83306</v>
       </c>
       <c r="D11" t="n">
-        <v>76.87817200000001</v>
+        <v>76.93983299999999</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -974,25 +974,25 @@
         <v>3750</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08974645789914693</v>
+        <v>0.005132347919696409</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001174189677936344</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>1862000</v>
       </c>
       <c r="L11" t="n">
-        <v>3867645.298630681</v>
+        <v>2325548.037064739</v>
       </c>
       <c r="M11" t="n">
-        <v>1221397.244794603</v>
+        <v>776332.5055597109</v>
       </c>
       <c r="N11" t="n">
         <v>25</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1001,14 +1001,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Velvex AdBlue (DEF) Filling Station</t>
+          <t>Indian oil petrol pump</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30.111345</v>
+        <v>29.859923</v>
       </c>
       <c r="D12" t="n">
-        <v>76.872135</v>
+        <v>76.92871100000001</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -1023,7 +1023,7 @@
         <v>3750</v>
       </c>
       <c r="I12" t="n">
-        <v>0.051913091687249</v>
+        <v>0.0004736383359735279</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>1862000</v>
       </c>
       <c r="L12" t="n">
-        <v>3695671.794456376</v>
+        <v>2311434.849413606</v>
       </c>
       <c r="M12" t="n">
-        <v>1195601.219168457</v>
+        <v>774215.527412041</v>
       </c>
       <c r="N12" t="n">
         <v>25</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30.118855</v>
+        <v>29.887863</v>
       </c>
       <c r="D13" t="n">
-        <v>76.870743</v>
+        <v>76.919506</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -1072,7 +1072,7 @@
         <v>3750</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05227670019638658</v>
+        <v>0.005219646519424606</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1081,16 +1081,16 @@
         <v>1862000</v>
       </c>
       <c r="L13" t="n">
-        <v>3697287.460650709</v>
+        <v>2325812.501182431</v>
       </c>
       <c r="M13" t="n">
-        <v>1195843.569097606</v>
+        <v>776372.1751773647</v>
       </c>
       <c r="N13" t="n">
         <v>25</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1099,20 +1099,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chinar Kashmiri Wazwan (Authentic Kashmiri Food)</t>
+          <t>Cheema Hp Filling Station</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30.695656</v>
+        <v>29.936625</v>
       </c>
       <c r="D14" t="n">
-        <v>76.869174</v>
+        <v>76.901596</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>3750</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04611900618404768</v>
+        <v>0.005896234126222735</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         <v>1862000</v>
       </c>
       <c r="L14" t="n">
-        <v>3669926.225143936</v>
+        <v>2327862.169161422</v>
       </c>
       <c r="M14" t="n">
-        <v>1191739.383771591</v>
+        <v>776679.6253742133</v>
       </c>
       <c r="N14" t="n">
         <v>25</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1148,14 +1148,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sawan Ruhani Filling Station</t>
+          <t>Bharat Petroleum, Petrol Pump -Pipli Highway Service Station</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30.688981</v>
+        <v>29.969053</v>
       </c>
       <c r="D15" t="n">
-        <v>76.867175</v>
+        <v>76.89426400000001</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -1170,7 +1170,7 @@
         <v>3750</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04271072644011364</v>
+        <v>0.005896234126222735</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1179,16 +1179,16 @@
         <v>1862000</v>
       </c>
       <c r="L15" t="n">
-        <v>3654781.798584273</v>
+        <v>2327862.169161422</v>
       </c>
       <c r="M15" t="n">
-        <v>1189467.719787641</v>
+        <v>776679.6253742133</v>
       </c>
       <c r="N15" t="n">
         <v>25</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1197,14 +1197,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The Aman Fuel station</t>
+          <t>Electric Vehicle Charging Station</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30.20543</v>
+        <v>30.015658</v>
       </c>
       <c r="D16" t="n">
-        <v>76.858486</v>
+        <v>76.88794900000001</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1219,7 +1219,7 @@
         <v>3750</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0548283656633455</v>
+        <v>0.05656012176560123</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>1862000</v>
       </c>
       <c r="L16" t="n">
-        <v>3708625.588143901</v>
+        <v>2481344.36</v>
       </c>
       <c r="M16" t="n">
-        <v>1197544.288221585</v>
+        <v>799701.954</v>
       </c>
       <c r="N16" t="n">
         <v>25</v>
@@ -1246,14 +1246,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Flicker Singh Filling Station Indian Oil Petrol Pump</t>
+          <t>Velvex AdBlue (DEF) Filling Station</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30.19587</v>
+        <v>30.111345</v>
       </c>
       <c r="D17" t="n">
-        <v>76.857659</v>
+        <v>76.872135</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1268,7 +1268,7 @@
         <v>3750</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05510483727702812</v>
+        <v>0.0001959638763234488</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1277,16 +1277,16 @@
         <v>1862000</v>
       </c>
       <c r="L17" t="n">
-        <v>3709854.068305102</v>
+        <v>2310593.656872079</v>
       </c>
       <c r="M17" t="n">
-        <v>1197728.560245765</v>
+        <v>774089.3485308118</v>
       </c>
       <c r="N17" t="n">
         <v>25</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1295,20 +1295,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Balaji Filling Station Indian Oil Petrol Pump</t>
+          <t>Chinar Kashmiri Wazwan (Authentic Kashmiri Food)</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30.267442</v>
+        <v>30.695656</v>
       </c>
       <c r="D18" t="n">
-        <v>76.853889</v>
+        <v>76.869174</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>3750</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05942934229345059</v>
+        <v>0.0006068206731297431</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>1862000</v>
       </c>
       <c r="L18" t="n">
-        <v>3729069.670763986</v>
+        <v>2311838.314639829</v>
       </c>
       <c r="M18" t="n">
-        <v>1200610.900614598</v>
+        <v>774276.0471959743</v>
       </c>
       <c r="N18" t="n">
         <v>25</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1344,20 +1344,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sarsar Ji Sweets &amp; Fast Food</t>
+          <t>Electric Vehicle Charging Station</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30.592359</v>
+        <v>30.171026</v>
       </c>
       <c r="D19" t="n">
-        <v>76.846295</v>
+        <v>76.86340300000001</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>3750</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03529516333529825</v>
+        <v>0.006168833270417773</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>1862000</v>
       </c>
       <c r="L19" t="n">
-        <v>3621831.319375723</v>
+        <v>2328687.986441169</v>
       </c>
       <c r="M19" t="n">
-        <v>1184525.147906359</v>
+        <v>776803.4979661754</v>
       </c>
       <c r="N19" t="n">
         <v>25</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1393,14 +1393,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dhillon Service Station Indian Oil Petrol Pump</t>
+          <t>The Aman Fuel station</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30.307263</v>
+        <v>30.20543</v>
       </c>
       <c r="D20" t="n">
-        <v>76.842742</v>
+        <v>76.858486</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -1415,7 +1415,7 @@
         <v>3750</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06027965339850815</v>
+        <v>5.926473453259056e-05</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>1862000</v>
       </c>
       <c r="L20" t="n">
-        <v>3732847.962175167</v>
+        <v>2310179.537767814</v>
       </c>
       <c r="M20" t="n">
-        <v>1201177.644326275</v>
+        <v>774027.2306651721</v>
       </c>
       <c r="N20" t="n">
         <v>25</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>M.K.DATTA FILLING STATION</t>
+          <t>Liqo Warehouse | Best Appliance Store | Panchkula | Mohali | Chandigarh</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30.319631</v>
+        <v>30.671194</v>
       </c>
       <c r="D21" t="n">
-        <v>76.839383</v>
+        <v>76.85476199999999</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1464,7 +1464,7 @@
         <v>3750</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03722369213572264</v>
+        <v>2.271941446035654e-06</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1473,16 +1473,16 @@
         <v>1862000</v>
       </c>
       <c r="L21" t="n">
-        <v>3630400.587446574</v>
+        <v>2310006.882664692</v>
       </c>
       <c r="M21" t="n">
-        <v>1185810.538116986</v>
+        <v>774001.3323997038</v>
       </c>
       <c r="N21" t="n">
         <v>25</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1491,20 +1491,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Maharaja Dhaba</t>
+          <t>Balaji Filling Station Indian Oil Petrol Pump</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30.3387172</v>
+        <v>30.267442</v>
       </c>
       <c r="D22" t="n">
-        <v>76.830899</v>
+        <v>76.853889</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>3750</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05779017372531192</v>
+        <v>2.463225291101402e-06</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>1862000</v>
       </c>
       <c r="L22" t="n">
-        <v>3721786.152430942</v>
+        <v>2310007.462143784</v>
       </c>
       <c r="M22" t="n">
-        <v>1199518.372864641</v>
+        <v>774001.4193215676</v>
       </c>
       <c r="N22" t="n">
         <v>25</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1540,20 +1540,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Best Price Flipkart Wholesale</t>
+          <t>HP pump Jimidara Filling Station Mohra</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30.6374571</v>
+        <v>30.256507</v>
       </c>
       <c r="D23" t="n">
-        <v>76.8239134</v>
+        <v>76.853846</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>3750</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07299765162838567</v>
+        <v>8.235882414220888e-06</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1571,16 +1571,16 @@
         <v>1862000</v>
       </c>
       <c r="L23" t="n">
-        <v>3789359.400392965</v>
+        <v>2310024.949946309</v>
       </c>
       <c r="M23" t="n">
-        <v>1209654.360058945</v>
+        <v>774004.0424919465</v>
       </c>
       <c r="N23" t="n">
         <v>25</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1589,14 +1589,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Indian Oil Petrol Pump</t>
+          <t>Jai Singh Filling Station Indian Oil Petrol Pump</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30.549433</v>
+        <v>30.23253</v>
       </c>
       <c r="D24" t="n">
-        <v>76.823699</v>
+        <v>76.853589</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
@@ -1611,7 +1611,7 @@
         <v>3750</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0616305543547608</v>
+        <v>1.044058779491379e-06</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1620,16 +1620,16 @@
         <v>1862000</v>
       </c>
       <c r="L24" t="n">
-        <v>3738850.585744361</v>
+        <v>2310003.162892472</v>
       </c>
       <c r="M24" t="n">
-        <v>1202078.037861655</v>
+        <v>774000.7744338709</v>
       </c>
       <c r="N24" t="n">
         <v>25</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1638,14 +1638,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Petrol pump</t>
+          <t>T GAS STATION MOHRI</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30.535828</v>
+        <v>30.240154</v>
       </c>
       <c r="D25" t="n">
-        <v>76.816575</v>
+        <v>76.853567</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
@@ -1660,7 +1660,7 @@
         <v>3750</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07142743581833118</v>
+        <v>7.189624130514322e-07</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1669,16 +1669,16 @@
         <v>1862000</v>
       </c>
       <c r="L25" t="n">
-        <v>3782382.268289735</v>
+        <v>2310002.178039061</v>
       </c>
       <c r="M25" t="n">
-        <v>1208607.79024346</v>
+        <v>774000.6267058593</v>
       </c>
       <c r="N25" t="n">
         <v>25</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1687,20 +1687,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Petrol station</t>
+          <t>Sarsar Ji Sweets &amp; Fast Food</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30.498124</v>
+        <v>30.592359</v>
       </c>
       <c r="D26" t="n">
-        <v>76.80319299999999</v>
+        <v>76.846295</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1709,7 +1709,7 @@
         <v>3750</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06199902938353493</v>
+        <v>2.570574275089325e-05</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>1862000</v>
       </c>
       <c r="L26" t="n">
-        <v>3740487.875941057</v>
+        <v>2310077.873489351</v>
       </c>
       <c r="M26" t="n">
-        <v>1202323.631391159</v>
+        <v>774011.9810234027</v>
       </c>
       <c r="N26" t="n">
         <v>25</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>I. S. Manmohan Singh &amp;Co</t>
+          <t>Dhillon Service Station Indian Oil Petrol Pump</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30.359383</v>
+        <v>30.307263</v>
       </c>
       <c r="D27" t="n">
-        <v>76.800331</v>
+        <v>76.842742</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -1758,7 +1758,7 @@
         <v>3750</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04236456516637207</v>
+        <v>2.640698769086885e-05</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>1862000</v>
       </c>
       <c r="L27" t="n">
-        <v>3653243.657826517</v>
+        <v>2310079.997854746</v>
       </c>
       <c r="M27" t="n">
-        <v>1189236.998673978</v>
+        <v>774012.2996782119</v>
       </c>
       <c r="N27" t="n">
         <v>25</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1785,14 +1785,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Indian Oil Petrol Pump</t>
+          <t>Indian Oil Petrol Pump ( Guru Nanak Service Station )</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>30.368041</v>
+        <v>30.663801</v>
       </c>
       <c r="D28" t="n">
-        <v>76.79933699999999</v>
+        <v>76.84251</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
@@ -1807,7 +1807,7 @@
         <v>3750</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02140155007795714</v>
+        <v>1.218972357794119e-06</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>1862000</v>
       </c>
       <c r="L28" t="n">
-        <v>3560096.127011117</v>
+        <v>2310003.692779152</v>
       </c>
       <c r="M28" t="n">
-        <v>1175264.869051668</v>
+        <v>774000.8539168729</v>
       </c>
       <c r="N28" t="n">
         <v>25</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1834,14 +1834,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JANVI RCM PUC</t>
+          <t>Kitchen Garden</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>30.4854058</v>
+        <v>30.5772497</v>
       </c>
       <c r="D29" t="n">
-        <v>76.7987534</v>
+        <v>76.8393932</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>3750</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03988012046238776</v>
+        <v>1.567395251362956e-06</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1865,16 +1865,16 @@
         <v>1862000</v>
       </c>
       <c r="L29" t="n">
-        <v>3642204.220577272</v>
+        <v>2310004.748298409</v>
       </c>
       <c r="M29" t="n">
-        <v>1187581.083086591</v>
+        <v>774001.0122447615</v>
       </c>
       <c r="N29" t="n">
         <v>25</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1883,17 +1883,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Electric Vehicle Charging Station</t>
+          <t>M.K.DATTA FILLING STATION</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30.372296</v>
+        <v>30.319631</v>
       </c>
       <c r="D30" t="n">
-        <v>76.79845</v>
+        <v>76.839383</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1902,10 +1902,10 @@
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>7350</v>
+        <v>3750</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02632530254205692</v>
+        <v>0.0001145455506860462</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>1862000</v>
       </c>
       <c r="L30" t="n">
-        <v>3581974.439002153</v>
+        <v>2310347.006573898</v>
       </c>
       <c r="M30" t="n">
-        <v>1178546.615850323</v>
+        <v>774052.3509860848</v>
       </c>
       <c r="N30" t="n">
         <v>25</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1932,17 +1932,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Indian Oil Petrol Pump</t>
+          <t>Bharat Petroleum, Petrol Pump -Dhillon Gas Station</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30.474926</v>
+        <v>30.334343</v>
       </c>
       <c r="D31" t="n">
-        <v>76.793762</v>
+        <v>76.835791</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1951,10 +1951,10 @@
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>7350</v>
+        <v>3750</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01999602330830785</v>
+        <v>3.019565692274039e-05</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1963,10 +1963,10 @@
         <v>1862000</v>
       </c>
       <c r="L31" t="n">
-        <v>3553850.777879057</v>
+        <v>2310091.475324817</v>
       </c>
       <c r="M31" t="n">
-        <v>1174328.066681859</v>
+        <v>774014.0212987226</v>
       </c>
       <c r="N31" t="n">
         <v>25</v>
@@ -1981,29 +1981,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>T.C.SPINNERS PRIVATE LIMITED</t>
+          <t>Electric Vehicle Charging Station</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30.4701481</v>
+        <v>30.566093</v>
       </c>
       <c r="D32" t="n">
-        <v>76.7931268</v>
+        <v>76.83203399999999</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>7350</v>
+        <v>3750</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01976874879554133</v>
+        <v>1.337549879238425e-06</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>1862000</v>
       </c>
       <c r="L32" t="n">
-        <v>3552840.901218081</v>
+        <v>2310004.052000259</v>
       </c>
       <c r="M32" t="n">
-        <v>1174176.585182712</v>
+        <v>774000.9078000388</v>
       </c>
       <c r="N32" t="n">
         <v>25</v>
@@ -2030,29 +2030,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mohinder Filling Station Sarsini Lalru</t>
+          <t>Modern Food Products</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30.460597</v>
+        <v>30.660449</v>
       </c>
       <c r="D33" t="n">
-        <v>76.78773700000001</v>
+        <v>76.827877</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>7350</v>
+        <v>3750</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03915697565400378</v>
+        <v>1.973319172881439e-06</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>1862000</v>
       </c>
       <c r="L33" t="n">
-        <v>3638990.982737255</v>
+        <v>2310005.978012426</v>
       </c>
       <c r="M33" t="n">
-        <v>1187099.097410589</v>
+        <v>774001.196701864</v>
       </c>
       <c r="N33" t="n">
         <v>25</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bharat Petroleum, Petrol Pump -Khalsa Filling Staiton</t>
+          <t>Reliance Petroleum</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>30.414833</v>
+        <v>30.617185</v>
       </c>
       <c r="D34" t="n">
-        <v>76.78266499999999</v>
+        <v>76.827865</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -2098,10 +2098,10 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>7350</v>
+        <v>3750</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0406897540953754</v>
+        <v>6.02840291337727e-06</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>1862000</v>
       </c>
       <c r="L34" t="n">
-        <v>3645801.764797883</v>
+        <v>2310018.262563919</v>
       </c>
       <c r="M34" t="n">
-        <v>1188120.714719682</v>
+        <v>774003.0393845879</v>
       </c>
       <c r="N34" t="n">
         <v>25</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2128,29 +2128,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Indian Oil Petrol Pump ( TEE EMM AUTO AIDS )</t>
+          <t>Best Price Flipkart Wholesale</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30.4427185</v>
+        <v>30.6374571</v>
       </c>
       <c r="D35" t="n">
-        <v>76.7813721</v>
+        <v>76.8239134</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>7350</v>
+        <v>3750</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03056234365432542</v>
+        <v>3.638822452112031e-06</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         <v>1862000</v>
       </c>
       <c r="L35" t="n">
-        <v>3600801.402390128</v>
+        <v>2310011.023521251</v>
       </c>
       <c r="M35" t="n">
-        <v>1181370.660358519</v>
+        <v>774001.9535281876</v>
       </c>
       <c r="N35" t="n">
         <v>25</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2177,17 +2177,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bharat Petroleum, Petrol Pump -Kamboj Filling Station</t>
+          <t>Indian Oil Petrol Pump</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30.421139</v>
+        <v>30.549433</v>
       </c>
       <c r="D36" t="n">
-        <v>76.781313</v>
+        <v>76.823699</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -2196,10 +2196,10 @@
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>7350</v>
+        <v>3750</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03501533322129138</v>
+        <v>1.578908620285911e-05</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>1862000</v>
       </c>
       <c r="L36" t="n">
-        <v>3620587.91597895</v>
+        <v>2310047.831772386</v>
       </c>
       <c r="M36" t="n">
-        <v>1184338.637396843</v>
+        <v>774007.4747658579</v>
       </c>
       <c r="N36" t="n">
         <v>25</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2226,17 +2226,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Electric Vehicle Charging Station</t>
+          <t>Petrol pump</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30.43728</v>
+        <v>30.535828</v>
       </c>
       <c r="D37" t="n">
-        <v>76.779495</v>
+        <v>76.816575</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -2245,10 +2245,10 @@
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>7350</v>
+        <v>3750</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02968575543932804</v>
+        <v>3.52904950938515e-05</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2257,16 +2257,16 @@
         <v>1862000</v>
       </c>
       <c r="L37" t="n">
-        <v>3596906.350680032</v>
+        <v>2310106.909729102</v>
       </c>
       <c r="M37" t="n">
-        <v>1180786.402602005</v>
+        <v>774016.3364593653</v>
       </c>
       <c r="N37" t="n">
         <v>25</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2275,17 +2275,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Royal Metro Filling Station Indian Oil Petrol Pump</t>
+          <t>Petrol station</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>29.731394</v>
+        <v>30.498124</v>
       </c>
       <c r="D38" t="n">
-        <v>76.976713</v>
+        <v>76.80319299999999</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -2294,10 +2294,10 @@
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>7350</v>
+        <v>3750</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03773296714820457</v>
+        <v>2.948912255303162e-06</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2306,16 +2306,16 @@
         <v>1862000</v>
       </c>
       <c r="L38" t="n">
-        <v>3632663.511444796</v>
+        <v>2310008.933493552</v>
       </c>
       <c r="M38" t="n">
-        <v>1186149.97671672</v>
+        <v>774001.6400240328</v>
       </c>
       <c r="N38" t="n">
         <v>25</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2324,17 +2324,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Electric Vehicle Charging Station</t>
+          <t>I. S. Manmohan Singh &amp;Co</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>29.73865</v>
+        <v>30.359383</v>
       </c>
       <c r="D39" t="n">
-        <v>76.975525</v>
+        <v>76.800331</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -2343,10 +2343,10 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>7350</v>
+        <v>3750</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03196704335645983</v>
+        <v>0.000199993849743929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2355,16 +2355,16 @@
         <v>1862000</v>
       </c>
       <c r="L39" t="n">
-        <v>3607043.076511865</v>
+        <v>2310605.865353867</v>
       </c>
       <c r="M39" t="n">
-        <v>1182306.91147678</v>
+        <v>774091.1798030802</v>
       </c>
       <c r="N39" t="n">
         <v>25</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2373,14 +2373,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Indian Oil Fueling Station</t>
+          <t>Indian Oil Petrol Pump</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>29.83306</v>
+        <v>30.368041</v>
       </c>
       <c r="D40" t="n">
-        <v>76.93983299999999</v>
+        <v>76.79933699999999</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
@@ -2395,25 +2395,25 @@
         <v>3750</v>
       </c>
       <c r="I40" t="n">
-        <v>0.08707192789841016</v>
+        <v>0.001615925323138977</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0007095212937003097</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>1862000</v>
       </c>
       <c r="L40" t="n">
-        <v>3854149.840414274</v>
+        <v>2314895.316375882</v>
       </c>
       <c r="M40" t="n">
-        <v>1219372.926062141</v>
+        <v>774734.5974563824</v>
       </c>
       <c r="N40" t="n">
         <v>25</v>
       </c>
       <c r="O40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2422,20 +2422,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Electric Vehicle Charging Station</t>
+          <t>JANVI RCM PUC</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>29.887863</v>
+        <v>30.4854058</v>
       </c>
       <c r="D41" t="n">
-        <v>76.919506</v>
+        <v>76.7987534</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2444,25 +2444,25 @@
         <v>3750</v>
       </c>
       <c r="I41" t="n">
-        <v>0.08724843453204421</v>
+        <v>7.692082894076105e-06</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0007412314929287518</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>1862000</v>
       </c>
       <c r="L41" t="n">
-        <v>3855040.478357564</v>
+        <v>2310023.302549206</v>
       </c>
       <c r="M41" t="n">
-        <v>1219506.521753635</v>
+        <v>774003.795382381</v>
       </c>
       <c r="N41" t="n">
         <v>25</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2471,17 +2471,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Neelkanth &amp; Sons Filling Station</t>
+          <t>Indian Oil Petrol Pump</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>29.975225</v>
+        <v>30.474926</v>
       </c>
       <c r="D42" t="n">
-        <v>76.89338100000001</v>
+        <v>76.793762</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -2490,10 +2490,10 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>3750</v>
+        <v>7350</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04463984042998814</v>
+        <v>8.735846763562155e-07</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>1862000</v>
       </c>
       <c r="L42" t="n">
-        <v>3663353.666899035</v>
+        <v>2310002.646454827</v>
       </c>
       <c r="M42" t="n">
-        <v>1190753.500034855</v>
+        <v>774000.6969682241</v>
       </c>
       <c r="N42" t="n">
         <v>25</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2520,17 +2520,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Electric Vehicle Charging Station</t>
+          <t>Mohinder Filling Station Sarsini Lalru</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>30.015658</v>
+        <v>30.460597</v>
       </c>
       <c r="D43" t="n">
-        <v>76.88794900000001</v>
+        <v>76.78773700000001</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -2539,28 +2539,28 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>3750</v>
+        <v>7350</v>
       </c>
       <c r="I43" t="n">
-        <v>0.08944599806188348</v>
+        <v>1.783515486643076e-06</v>
       </c>
       <c r="J43" t="n">
-        <v>0.001123628499807763</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>1862000</v>
       </c>
       <c r="L43" t="n">
-        <v>3866129.203025703</v>
+        <v>2310005.403017357</v>
       </c>
       <c r="M43" t="n">
-        <v>1221169.830453856</v>
+        <v>774001.1104526035</v>
       </c>
       <c r="N43" t="n">
         <v>25</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2569,17 +2569,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Electric Vehicle Charging Station</t>
+          <t>Bharat Petroleum, Petrol Pump -Khalsa Filling Staiton</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30.171026</v>
+        <v>30.414833</v>
       </c>
       <c r="D44" t="n">
-        <v>76.86340300000001</v>
+        <v>76.78266499999999</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -2588,28 +2588,28 @@
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>3750</v>
+        <v>7350</v>
       </c>
       <c r="I44" t="n">
-        <v>0.08416728803078172</v>
+        <v>0.005021657258696217</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0001648117241236802</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>1862000</v>
       </c>
       <c r="L44" t="n">
-        <v>3839493.266752174</v>
+        <v>2325212.708570475</v>
       </c>
       <c r="M44" t="n">
-        <v>1217174.440012826</v>
+        <v>776282.2062855712</v>
       </c>
       <c r="N44" t="n">
         <v>25</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2618,29 +2618,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Liqo Warehouse | Best Appliance Store | Panchkula | Mohali | Chandigarh</t>
+          <t>Indian Oil Petrol Pump ( TEE EMM AUTO AIDS )</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30.671194</v>
+        <v>30.4427185</v>
       </c>
       <c r="D45" t="n">
-        <v>76.85476199999999</v>
+        <v>76.7813721</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>3750</v>
+        <v>7350</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05592436820716404</v>
+        <v>3.245089154360265e-05</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2649,506 +2649,16 @@
         <v>1862000</v>
       </c>
       <c r="L45" t="n">
-        <v>3713495.590397561</v>
+        <v>2310098.30737752</v>
       </c>
       <c r="M45" t="n">
-        <v>1198274.788559634</v>
+        <v>774015.046106628</v>
       </c>
       <c r="N45" t="n">
         <v>25</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>HP pump Jimidara Filling Station Mohra</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>30.256507</v>
-      </c>
-      <c r="D46" t="n">
-        <v>76.853846</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3750</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.05019895622383783</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1862000</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3688055.16654162</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1194458.724981243</v>
-      </c>
-      <c r="N46" t="n">
-        <v>25</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Jai Singh Filling Station Indian Oil Petrol Pump</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>30.23253</v>
-      </c>
-      <c r="D47" t="n">
-        <v>76.853589</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3750</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.04466272305927397</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1862000</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3663455.344086574</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1190768.751612986</v>
-      </c>
-      <c r="N47" t="n">
-        <v>25</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>T GAS STATION MOHRI</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>30.240154</v>
-      </c>
-      <c r="D48" t="n">
-        <v>76.853567</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3750</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.04056733346046922</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1862000</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3645257.798206518</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1188039.119730978</v>
-      </c>
-      <c r="N48" t="n">
-        <v>25</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Bharat Petroleum, Petrol Pump -Hirda Ram Mansa Ram</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>30.586167</v>
-      </c>
-      <c r="D49" t="n">
-        <v>76.84559</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3750</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.02805104095591981</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1862000</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3589642.623726851</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1179696.843559028</v>
-      </c>
-      <c r="N49" t="n">
-        <v>25</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Indian Oil Petrol Pump ( Guru Nanak Service Station )</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>30.663801</v>
-      </c>
-      <c r="D50" t="n">
-        <v>76.84251</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3750</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.04979323417053984</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1862000</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3686252.372081822</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1194188.305812273</v>
-      </c>
-      <c r="N50" t="n">
-        <v>25</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Kitchen Garden</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>30.5772497</v>
-      </c>
-      <c r="D51" t="n">
-        <v>76.8393932</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>3750</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.03818205956079632</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1862000</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3634659.018730577</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1186449.302809587</v>
-      </c>
-      <c r="N51" t="n">
-        <v>25</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Bharat Petroleum, Petrol Pump -Ambala Filling Station</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>30.327786</v>
-      </c>
-      <c r="D52" t="n">
-        <v>76.838143</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3750</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.03730072408680561</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1862000</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3630742.872943532</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1185861.88094153</v>
-      </c>
-      <c r="N52" t="n">
-        <v>25</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Electric Vehicle Charging Station</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>30.566093</v>
-      </c>
-      <c r="D53" t="n">
-        <v>76.83203399999999</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>3750</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.05222676608998147</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1862000</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3697065.582323784</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1195810.287348568</v>
-      </c>
-      <c r="N53" t="n">
-        <v>25</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Modern Food Products</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>30.660449</v>
-      </c>
-      <c r="D54" t="n">
-        <v>76.827877</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3750</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.06019809955900644</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1862000</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3732485.584017919</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1201123.287602688</v>
-      </c>
-      <c r="N54" t="n">
-        <v>25</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Reliance Petroleum</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>30.617185</v>
-      </c>
-      <c r="D55" t="n">
-        <v>76.827865</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3750</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.07608002998427547</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1862000</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3803055.709424802</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1211708.80641372</v>
-      </c>
-      <c r="N55" t="n">
-        <v>25</v>
-      </c>
-      <c r="O55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
